--- a/ESPN sports website/IPL/Gujarat Titans/.xlsx
+++ b/ESPN sports website/IPL/Gujarat Titans/.xlsx
@@ -460,16 +460,16 @@
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>Mumbai Indians</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>May 06, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
